--- a/REM3V25 - Bye.xlsx
+++ b/REM3V25 - Bye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumon\Desktop\emtournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3CD64-D086-46DE-984C-7A3FBE6AB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA5FCF-06DB-490D-A3DF-1F55D84F2E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Gheury, Jean-Marie</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Orban, Didier</t>
+  </si>
+  <si>
+    <t>Demblon, Jean-Luc</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,16 +446,24 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>

--- a/REM3V25 - Bye.xlsx
+++ b/REM3V25 - Bye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumon\Desktop\emtournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA5FCF-06DB-490D-A3DF-1F55D84F2E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BBB0B-8B4B-442E-9CB8-D663955EB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Gheury, Jean-Marie</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Demblon, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Morgenthal, Renaud</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,8 +473,12 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>

--- a/REM3V25 - Bye.xlsx
+++ b/REM3V25 - Bye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumon\Desktop\emtournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BBB0B-8B4B-442E-9CB8-D663955EB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C571A167-D728-46BB-A041-7DA8A36F9BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Gheury, Jean-Marie</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Morgenthal, Renaud</t>
+  </si>
+  <si>
+    <t>Munster, Pierre</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,8 +488,12 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/REM3V25 - Bye.xlsx
+++ b/REM3V25 - Bye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumon\Desktop\emtournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C571A167-D728-46BB-A041-7DA8A36F9BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3236F7-A116-4782-837B-1A05EB79E624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Gheury, Jean-Marie</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Munster, Pierre</t>
+  </si>
+  <si>
+    <t>Bair, Marc</t>
+  </si>
+  <si>
+    <t>Morard, Ambroise</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,16 +506,24 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
